--- a/CTDC_Automation/OutputFiles/TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx
+++ b/CTDC_Automation/OutputFiles/TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx
@@ -627,7 +627,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\Users\radhakrishnang2\Desktop\Script\DataCommons_Automation\CTDC_Automation\OutputFiles\TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx</t>
+    <t>C:\laxmi\Katalon_May5\DataCommons_Automation\DataCommons_Automation\CTDC_Automation\OutputFiles\TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>

--- a/CTDC_Automation/OutputFiles/TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx
+++ b/CTDC_Automation/OutputFiles/TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx
@@ -15,31 +15,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="205">
   <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>study_code</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
-    <t>breed</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>stage_of_disease</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>neutered_status</t>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>Study Code</t>
+  </si>
+  <si>
+    <t>Study Type</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Stage of Disease</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Neutered Status</t>
   </si>
   <si>
     <t>COTC007B0414</t>
@@ -621,13 +621,13 @@
     <t>Cypher:</t>
   </si>
   <si>
-    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE s.clinical_study_designation IN ['COTC007B'] WITH DISTINCT c AS c, p, s, demo, diag RETURN coalesce(c.case_id,'') AS case_id , coalesce(s.clinical_study_designation,'') AS study_code , coalesce(s.clinical_study_type,'') AS study_type , coalesce(demo.breed,'') AS breed , coalesce(diag.disease_term,'') AS diagnosis , coalesce(diag.stage_of_disease,'') AS stage_of_disease , coalesce(demo.patient_age_at_enrollment,'') AS age , coalesce(demo.sex,'') AS sex , coalesce(demo.neutered_indicator,'') AS neutered_status</t>
+    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE s.clinical_study_designation IN ['COTC007B'] WITH DISTINCT c AS c, p, s, demo, diag RETURN coalesce(c.case_id,'') AS `Case ID` , coalesce(s.clinical_study_designation,'') AS `Study Code` , coalesce(s.clinical_study_type,'') AS  `Study Type`, coalesce(demo.breed,'') AS Breed , coalesce(diag.disease_term,'') AS Diagnosis , coalesce(diag.stage_of_disease,'') AS `Stage of Disease` ,  coalesce(demo.patient_age_at_enrollment,'') AS Age , coalesce(demo.sex,'') AS Sex , coalesce(demo.neutered_indicator,'') AS  `Neutered Status`</t>
   </si>
   <si>
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\laxmi\Katalon_May5\DataCommons_Automation\DataCommons_Automation\CTDC_Automation\OutputFiles\TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx</t>
+    <t>C:\Users\radhakrishnang2\Desktop\DataCommons_Automation\CTDC_Automation\OutputFiles\TC01_Canine_Filter_Study-COTB_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>
